--- a/public/template_barang.xlsx
+++ b/public/template_barang.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F07B5541-38C3-40AE-9B87-056E24703656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2CE103-6EB7-46AF-AB80-0920442D4A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7630E794-89E0-48AF-BCAB-EF9256912FFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>kategori_id</t>
   </si>
@@ -42,54 +37,62 @@
     <t>harga_jual</t>
   </si>
   <si>
-    <t>BRG016</t>
-  </si>
-  <si>
-    <t>Mouse Logitech</t>
-  </si>
-  <si>
-    <t>BRG017</t>
-  </si>
-  <si>
-    <t>BRG018</t>
-  </si>
-  <si>
-    <t>Crewneck</t>
-  </si>
-  <si>
-    <t>Basreng</t>
-  </si>
-  <si>
-    <t>BRG019</t>
-  </si>
-  <si>
-    <t>Sandal terapi</t>
-  </si>
-  <si>
-    <t>BRG020</t>
-  </si>
-  <si>
-    <t>Sepatu Jogging</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>KTG001</t>
+  </si>
+  <si>
+    <t>KTG002</t>
+  </si>
+  <si>
+    <t>KTG003</t>
+  </si>
+  <si>
+    <t>KTG004</t>
+  </si>
+  <si>
+    <t>KTG005</t>
+  </si>
+  <si>
+    <t>KTG006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -134,150 +137,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,32 +329,23 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795F1E16-70FE-4A07-959A-48F5DC0E397B}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,92 +362,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>300000</v>
-      </c>
-      <c r="E2">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>220000</v>
-      </c>
-      <c r="E3">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>40000</v>
-      </c>
-      <c r="E4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>30000</v>
-      </c>
-      <c r="E5">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>500000</v>
-      </c>
-      <c r="E6">
-        <v>600000</v>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>